--- a/ZYJ Construction/26205/ZYJ Construction__Highbury Triangle__resources.xlsx
+++ b/ZYJ Construction/26205/ZYJ Construction__Highbury Triangle__resources.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="949">
   <si>
     <t>Rich Type</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>zSYS - Flat Slab Placement (old version)</t>
   </si>
   <si>
     <t>0914d3f0-7ee6-4739-9d52-e2668a4603d1</t>
@@ -3325,166 +3328,166 @@
         <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -3493,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -3502,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -3514,95 +3517,95 @@
         <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -3620,7 +3623,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
@@ -3632,95 +3635,95 @@
         <v>17</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -3729,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -3738,7 +3741,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -3750,95 +3753,95 @@
         <v>17</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -3847,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -3856,7 +3859,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
@@ -3868,95 +3871,95 @@
         <v>17</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -3965,7 +3968,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
@@ -3974,7 +3977,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
@@ -3986,231 +3989,231 @@
         <v>17</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -4219,7 +4222,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
@@ -4228,7 +4231,7 @@
         <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
@@ -4240,95 +4243,95 @@
         <v>17</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -4337,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
@@ -4346,7 +4349,7 @@
         <v>15</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -4358,112 +4361,112 @@
         <v>17</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -4472,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
@@ -4481,7 +4484,7 @@
         <v>15</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -4493,112 +4496,112 @@
         <v>17</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -4607,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
@@ -4616,7 +4619,7 @@
         <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -4628,78 +4631,78 @@
         <v>17</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -4708,7 +4711,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
@@ -4717,7 +4720,7 @@
         <v>15</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>14</v>
@@ -4729,112 +4732,112 @@
         <v>17</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -4843,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
@@ -4852,7 +4855,7 @@
         <v>15</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
@@ -4864,112 +4867,112 @@
         <v>17</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -4978,7 +4981,7 @@
         <v>12</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
@@ -4987,7 +4990,7 @@
         <v>15</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>14</v>
@@ -4999,129 +5002,129 @@
         <v>17</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E105" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -5130,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
@@ -5139,7 +5142,7 @@
         <v>15</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>14</v>
@@ -5151,129 +5154,129 @@
         <v>17</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E111" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -5282,7 +5285,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
@@ -5291,7 +5294,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>14</v>
@@ -5303,197 +5306,197 @@
         <v>17</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -5502,7 +5505,7 @@
         <v>12</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
@@ -5511,7 +5514,7 @@
         <v>15</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>14</v>
@@ -5523,146 +5526,146 @@
         <v>17</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E137" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -5671,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
@@ -5680,7 +5683,7 @@
         <v>15</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>14</v>
@@ -5692,129 +5695,129 @@
         <v>17</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E144" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E148" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E149" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -5823,7 +5826,7 @@
         <v>12</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
@@ -5832,7 +5835,7 @@
         <v>15</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>14</v>
@@ -5844,163 +5847,163 @@
         <v>17</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E152" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E153" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E154" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E156" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E157" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E159" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E160" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -6009,7 +6012,7 @@
         <v>12</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
@@ -6018,7 +6021,7 @@
         <v>15</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>14</v>
@@ -6030,214 +6033,214 @@
         <v>17</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E163" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E164" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E166" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E167" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E169" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E170" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E172" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E173" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -6246,7 +6249,7 @@
         <v>12</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>14</v>
@@ -6255,7 +6258,7 @@
         <v>15</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>14</v>
@@ -6267,333 +6270,333 @@
         <v>17</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B177" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C177" t="s">
         <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E177" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B178" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C178" t="s">
         <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E178" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B179" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E179" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E180" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C181" t="s">
         <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E181" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B182" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C182" t="s">
         <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E182" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B183" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C183" t="s">
         <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E183" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B184" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C184" t="s">
         <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E184" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C185" t="s">
         <v>14</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E185" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B186" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C186" t="s">
         <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E186" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C187" t="s">
         <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E187" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B188" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C188" t="s">
         <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E188" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B189" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C189" t="s">
         <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E189" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C190" t="s">
         <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C191" t="s">
         <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E191" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C193" t="s">
         <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E193" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B194" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C194" t="s">
         <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E194" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B195" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E195" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -6602,7 +6605,7 @@
         <v>12</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>14</v>
@@ -6611,7 +6614,7 @@
         <v>15</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>14</v>
@@ -6623,129 +6626,129 @@
         <v>17</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C198" t="s">
         <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B199" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C199" t="s">
         <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E199" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B200" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
       </c>
       <c r="D200" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E200" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B201" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E201" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B202" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E202" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C203" t="s">
         <v>14</v>
       </c>
       <c r="D203" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E203" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B204" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E204" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -6754,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>14</v>
@@ -6763,7 +6766,7 @@
         <v>15</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>14</v>
@@ -6775,95 +6778,95 @@
         <v>17</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C207" t="s">
         <v>14</v>
       </c>
       <c r="D207" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E207" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C208" t="s">
         <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E208" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C209" t="s">
         <v>14</v>
       </c>
       <c r="D209" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E209" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E210" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E211" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -6872,7 +6875,7 @@
         <v>12</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>14</v>
@@ -6881,7 +6884,7 @@
         <v>15</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>14</v>
@@ -6893,129 +6896,129 @@
         <v>17</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L213" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
       </c>
       <c r="D214" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E214" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C215" t="s">
         <v>14</v>
       </c>
       <c r="D215" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E215" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E216" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
       </c>
       <c r="D217" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E217" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
       </c>
       <c r="D218" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E218" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
       </c>
       <c r="D219" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E219" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
       </c>
       <c r="D220" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E220" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -7024,7 +7027,7 @@
         <v>12</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>14</v>
@@ -7033,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>14</v>
@@ -7045,104 +7048,104 @@
         <v>17</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
       </c>
       <c r="D223" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E223" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
       </c>
       <c r="D224" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E224" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B225" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E225" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B226" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E226" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B227" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E227" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>14</v>
@@ -7151,7 +7154,7 @@
         <v>15</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>14</v>
@@ -7163,588 +7166,588 @@
         <v>17</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B231" t="s">
+        <v>469</v>
+      </c>
+      <c r="C231" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" t="s">
+        <v>22</v>
+      </c>
+      <c r="E231" t="s">
         <v>468</v>
-      </c>
-      <c r="C231" t="s">
-        <v>14</v>
-      </c>
-      <c r="D231" t="s">
-        <v>21</v>
-      </c>
-      <c r="E231" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B232" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
       </c>
       <c r="D232" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E232" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E233" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B234" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
       </c>
       <c r="D234" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E234" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B236" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
       </c>
       <c r="D236" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E236" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B237" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C237" t="s">
         <v>14</v>
       </c>
       <c r="D237" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E237" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B238" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
       </c>
       <c r="D238" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E238" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B239" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C239" t="s">
         <v>14</v>
       </c>
       <c r="D239" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E239" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B240" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
       </c>
       <c r="D240" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E240" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C241" t="s">
         <v>14</v>
       </c>
       <c r="D241" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E241" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B242" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
       </c>
       <c r="D242" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E242" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B243" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
       </c>
       <c r="D243" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E243" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B244" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C244" t="s">
         <v>14</v>
       </c>
       <c r="D244" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E244" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B245" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
       </c>
       <c r="D245" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E245" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B246" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C246" t="s">
         <v>14</v>
       </c>
       <c r="D246" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E246" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B247" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
       </c>
       <c r="D247" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E247" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B249" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E249" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B250" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
       </c>
       <c r="D250" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E250" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B251" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E251" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B252" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
       </c>
       <c r="D252" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E252" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B253" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E253" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B254" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E254" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B255" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C255" t="s">
         <v>14</v>
       </c>
       <c r="D255" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E255" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B256" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C256" t="s">
         <v>14</v>
       </c>
       <c r="D256" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E256" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B257" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C257" t="s">
         <v>14</v>
       </c>
       <c r="D257" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E257" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B258" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C258" t="s">
         <v>14</v>
       </c>
       <c r="D258" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E258" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C259" t="s">
         <v>14</v>
       </c>
       <c r="D259" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E259" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B260" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
       </c>
       <c r="D260" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E260" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B261" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
       </c>
       <c r="D261" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E261" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B263" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
       </c>
       <c r="D263" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E263" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -7753,7 +7756,7 @@
         <v>12</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>14</v>
@@ -7762,7 +7765,7 @@
         <v>15</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>14</v>
@@ -7774,197 +7777,197 @@
         <v>17</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L265" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B266" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C266" t="s">
         <v>14</v>
       </c>
       <c r="D266" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E266" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B267" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="D267" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E267" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B268" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
       </c>
       <c r="D268" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E268" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
       </c>
       <c r="D269" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E269" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B270" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E270" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B271" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
       </c>
       <c r="D271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E271" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B272" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
       </c>
       <c r="D272" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E272" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B273" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
       </c>
       <c r="D273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E273" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B274" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="D274" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E274" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B275" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E275" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B276" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E276" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -7973,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>14</v>
@@ -7982,7 +7985,7 @@
         <v>15</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>14</v>
@@ -7994,112 +7997,112 @@
         <v>17</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L278" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B279" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E279" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B280" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C280" t="s">
         <v>14</v>
       </c>
       <c r="D280" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E280" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B281" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
       </c>
       <c r="D281" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E281" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B282" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E282" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B283" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E283" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B284" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
       </c>
       <c r="D284" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E284" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -8108,7 +8111,7 @@
         <v>12</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>14</v>
@@ -8117,7 +8120,7 @@
         <v>15</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>14</v>
@@ -8129,146 +8132,146 @@
         <v>17</v>
       </c>
       <c r="K286" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L286" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B287" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E287" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B288" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="D288" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E288" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B289" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
       </c>
       <c r="D289" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E289" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B290" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E290" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B291" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C291" t="s">
         <v>14</v>
       </c>
       <c r="D291" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E291" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B292" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C292" t="s">
         <v>14</v>
       </c>
       <c r="D292" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E292" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B293" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C293" t="s">
         <v>14</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E293" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B294" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C294" t="s">
         <v>14</v>
       </c>
       <c r="D294" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E294" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -8277,7 +8280,7 @@
         <v>12</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>14</v>
@@ -8286,7 +8289,7 @@
         <v>15</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>14</v>
@@ -8298,95 +8301,95 @@
         <v>17</v>
       </c>
       <c r="K296" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L296" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B297" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C297" t="s">
         <v>14</v>
       </c>
       <c r="D297" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E297" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B298" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C298" t="s">
         <v>14</v>
       </c>
       <c r="D298" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E298" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B299" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C299" t="s">
         <v>14</v>
       </c>
       <c r="D299" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E299" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B300" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C300" t="s">
         <v>14</v>
       </c>
       <c r="D300" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E300" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B301" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
       </c>
       <c r="D301" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E301" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -8395,7 +8398,7 @@
         <v>12</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>14</v>
@@ -8404,7 +8407,7 @@
         <v>15</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>14</v>
@@ -8416,214 +8419,214 @@
         <v>17</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L303" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B304" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C304" t="s">
         <v>14</v>
       </c>
       <c r="D304" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B305" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C305" t="s">
         <v>14</v>
       </c>
       <c r="D305" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E305" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B306" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C306" t="s">
         <v>14</v>
       </c>
       <c r="D306" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E306" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B307" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
       </c>
       <c r="D307" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E307" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B308" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C308" t="s">
         <v>14</v>
       </c>
       <c r="D308" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E308" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B309" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C309" t="s">
         <v>14</v>
       </c>
       <c r="D309" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E309" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B310" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C310" t="s">
         <v>14</v>
       </c>
       <c r="D310" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E310" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B311" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C311" t="s">
         <v>14</v>
       </c>
       <c r="D311" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E311" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B312" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C312" t="s">
         <v>14</v>
       </c>
       <c r="D312" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E312" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B313" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C313" t="s">
         <v>14</v>
       </c>
       <c r="D313" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E313" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B314" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C314" t="s">
         <v>14</v>
       </c>
       <c r="D314" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E314" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B315" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C315" t="s">
         <v>14</v>
       </c>
       <c r="D315" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E315" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -8632,7 +8635,7 @@
         <v>12</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>14</v>
@@ -8641,7 +8644,7 @@
         <v>15</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>14</v>
@@ -8653,163 +8656,163 @@
         <v>17</v>
       </c>
       <c r="K317" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L317" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B318" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C318" t="s">
         <v>14</v>
       </c>
       <c r="D318" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E318" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B319" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
       </c>
       <c r="D319" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E319" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B320" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C320" t="s">
         <v>14</v>
       </c>
       <c r="D320" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E320" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B321" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C321" t="s">
         <v>14</v>
       </c>
       <c r="D321" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E321" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B322" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C322" t="s">
         <v>14</v>
       </c>
       <c r="D322" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E322" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B323" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C323" t="s">
         <v>14</v>
       </c>
       <c r="D323" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E323" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B324" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C324" t="s">
         <v>14</v>
       </c>
       <c r="D324" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E324" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B325" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C325" t="s">
         <v>14</v>
       </c>
       <c r="D325" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E325" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B326" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C326" t="s">
         <v>14</v>
       </c>
       <c r="D326" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E326" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -8818,7 +8821,7 @@
         <v>12</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>14</v>
@@ -8827,7 +8830,7 @@
         <v>15</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>14</v>
@@ -8839,78 +8842,78 @@
         <v>17</v>
       </c>
       <c r="K328" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L328" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B329" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C329" t="s">
         <v>14</v>
       </c>
       <c r="D329" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E329" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B330" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C330" t="s">
         <v>14</v>
       </c>
       <c r="D330" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E330" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B331" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C331" t="s">
         <v>14</v>
       </c>
       <c r="D331" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E331" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B332" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C332" t="s">
         <v>14</v>
       </c>
       <c r="D332" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E332" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -8919,7 +8922,7 @@
         <v>12</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>14</v>
@@ -8928,7 +8931,7 @@
         <v>15</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>14</v>
@@ -8940,61 +8943,61 @@
         <v>17</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B335" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C335" t="s">
         <v>14</v>
       </c>
       <c r="D335" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E335" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B336" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C336" t="s">
         <v>14</v>
       </c>
       <c r="D336" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E336" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B337" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C337" t="s">
         <v>14</v>
       </c>
       <c r="D337" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E337" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -9003,7 +9006,7 @@
         <v>12</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>14</v>
@@ -9012,7 +9015,7 @@
         <v>15</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>14</v>
@@ -9024,163 +9027,163 @@
         <v>17</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B340" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C340" t="s">
         <v>14</v>
       </c>
       <c r="D340" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B341" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C341" t="s">
         <v>14</v>
       </c>
       <c r="D341" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B342" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C342" t="s">
         <v>14</v>
       </c>
       <c r="D342" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B343" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C343" t="s">
         <v>14</v>
       </c>
       <c r="D343" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B344" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C344" t="s">
         <v>14</v>
       </c>
       <c r="D344" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B345" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C345" t="s">
         <v>14</v>
       </c>
       <c r="D345" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B346" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C346" t="s">
         <v>14</v>
       </c>
       <c r="D346" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B347" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C347" t="s">
         <v>14</v>
       </c>
       <c r="D347" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B348" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C348" t="s">
         <v>14</v>
       </c>
       <c r="D348" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -9189,7 +9192,7 @@
         <v>12</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>14</v>
@@ -9198,7 +9201,7 @@
         <v>15</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>14</v>
@@ -9210,146 +9213,146 @@
         <v>17</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B351" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C351" t="s">
         <v>14</v>
       </c>
       <c r="D351" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E351" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B352" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C352" t="s">
         <v>14</v>
       </c>
       <c r="D352" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E352" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B353" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C353" t="s">
         <v>14</v>
       </c>
       <c r="D353" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B354" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C354" t="s">
         <v>14</v>
       </c>
       <c r="D354" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B355" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C355" t="s">
         <v>14</v>
       </c>
       <c r="D355" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B356" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C356" t="s">
         <v>14</v>
       </c>
       <c r="D356" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B357" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C357" t="s">
         <v>14</v>
       </c>
       <c r="D357" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B358" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C358" t="s">
         <v>14</v>
       </c>
       <c r="D358" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -9358,7 +9361,7 @@
         <v>12</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>14</v>
@@ -9367,7 +9370,7 @@
         <v>15</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>14</v>
@@ -9379,248 +9382,248 @@
         <v>17</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L360" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B361" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C361" t="s">
         <v>14</v>
       </c>
       <c r="D361" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E361" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B362" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C362" t="s">
         <v>14</v>
       </c>
       <c r="D362" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E362" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B363" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C363" t="s">
         <v>14</v>
       </c>
       <c r="D363" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E363" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B364" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C364" t="s">
         <v>14</v>
       </c>
       <c r="D364" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E364" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B365" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C365" t="s">
         <v>14</v>
       </c>
       <c r="D365" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E365" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B366" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C366" t="s">
         <v>14</v>
       </c>
       <c r="D366" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E366" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B367" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C367" t="s">
         <v>14</v>
       </c>
       <c r="D367" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B368" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C368" t="s">
         <v>14</v>
       </c>
       <c r="D368" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B369" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C369" t="s">
         <v>14</v>
       </c>
       <c r="D369" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B370" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C370" t="s">
         <v>14</v>
       </c>
       <c r="D370" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B371" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C371" t="s">
         <v>14</v>
       </c>
       <c r="D371" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B372" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C372" t="s">
         <v>14</v>
       </c>
       <c r="D372" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B373" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C373" t="s">
         <v>14</v>
       </c>
       <c r="D373" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E373" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B374" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C374" t="s">
         <v>14</v>
       </c>
       <c r="D374" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E374" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -9629,7 +9632,7 @@
         <v>12</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>14</v>
@@ -9638,7 +9641,7 @@
         <v>15</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>14</v>
@@ -9650,248 +9653,248 @@
         <v>17</v>
       </c>
       <c r="K376" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L376" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B377" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C377" t="s">
         <v>14</v>
       </c>
       <c r="D377" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E377" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B378" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C378" t="s">
         <v>14</v>
       </c>
       <c r="D378" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E378" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B379" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C379" t="s">
         <v>14</v>
       </c>
       <c r="D379" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E379" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B380" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C380" t="s">
         <v>14</v>
       </c>
       <c r="D380" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E380" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B381" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C381" t="s">
         <v>14</v>
       </c>
       <c r="D381" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E381" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B382" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
       </c>
       <c r="D382" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E382" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B383" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C383" t="s">
         <v>14</v>
       </c>
       <c r="D383" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E383" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B384" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C384" t="s">
         <v>14</v>
       </c>
       <c r="D384" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E384" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B385" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C385" t="s">
         <v>14</v>
       </c>
       <c r="D385" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E385" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B386" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C386" t="s">
         <v>14</v>
       </c>
       <c r="D386" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E386" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B387" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C387" t="s">
         <v>14</v>
       </c>
       <c r="D387" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E387" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B388" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C388" t="s">
         <v>14</v>
       </c>
       <c r="D388" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E388" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B389" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C389" t="s">
         <v>14</v>
       </c>
       <c r="D389" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E389" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B390" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C390" t="s">
         <v>14</v>
       </c>
       <c r="D390" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E390" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -9900,7 +9903,7 @@
         <v>12</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>14</v>
@@ -9909,7 +9912,7 @@
         <v>15</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>14</v>
@@ -9921,146 +9924,146 @@
         <v>17</v>
       </c>
       <c r="K392" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L392" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B393" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C393" t="s">
         <v>14</v>
       </c>
       <c r="D393" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E393" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B394" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C394" t="s">
         <v>14</v>
       </c>
       <c r="D394" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E394" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B395" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C395" t="s">
         <v>14</v>
       </c>
       <c r="D395" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E395" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B396" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C396" t="s">
         <v>14</v>
       </c>
       <c r="D396" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E396" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B397" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C397" t="s">
         <v>14</v>
       </c>
       <c r="D397" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B398" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C398" t="s">
         <v>14</v>
       </c>
       <c r="D398" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E398" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B399" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C399" t="s">
         <v>14</v>
       </c>
       <c r="D399" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E399" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B400" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C400" t="s">
         <v>14</v>
       </c>
       <c r="D400" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E400" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -10069,7 +10072,7 @@
         <v>12</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>14</v>
@@ -10078,7 +10081,7 @@
         <v>15</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>14</v>
@@ -10090,112 +10093,112 @@
         <v>17</v>
       </c>
       <c r="K402" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L402" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B403" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C403" t="s">
         <v>14</v>
       </c>
       <c r="D403" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E403" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B404" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C404" t="s">
         <v>14</v>
       </c>
       <c r="D404" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E404" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B405" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C405" t="s">
         <v>14</v>
       </c>
       <c r="D405" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E405" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B406" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C406" t="s">
         <v>14</v>
       </c>
       <c r="D406" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E406" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B407" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C407" t="s">
         <v>14</v>
       </c>
       <c r="D407" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E407" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B408" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C408" t="s">
         <v>14</v>
       </c>
       <c r="D408" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -10204,7 +10207,7 @@
         <v>12</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>14</v>
@@ -10213,7 +10216,7 @@
         <v>15</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>14</v>
@@ -10225,112 +10228,112 @@
         <v>17</v>
       </c>
       <c r="K410" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L410" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B411" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C411" t="s">
         <v>14</v>
       </c>
       <c r="D411" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E411" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B412" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C412" t="s">
         <v>14</v>
       </c>
       <c r="D412" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E412" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B413" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C413" t="s">
         <v>14</v>
       </c>
       <c r="D413" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E413" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B414" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C414" t="s">
         <v>14</v>
       </c>
       <c r="D414" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E414" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B415" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C415" t="s">
         <v>14</v>
       </c>
       <c r="D415" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E415" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B416" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C416" t="s">
         <v>14</v>
       </c>
       <c r="D416" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E416" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -10339,7 +10342,7 @@
         <v>12</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>14</v>
@@ -10348,7 +10351,7 @@
         <v>15</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>14</v>
@@ -10360,129 +10363,129 @@
         <v>17</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B419" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C419" t="s">
         <v>14</v>
       </c>
       <c r="D419" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E419" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B420" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C420" t="s">
         <v>14</v>
       </c>
       <c r="D420" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E420" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B421" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C421" t="s">
         <v>14</v>
       </c>
       <c r="D421" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E421" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B422" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C422" t="s">
         <v>14</v>
       </c>
       <c r="D422" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E422" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B423" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C423" t="s">
         <v>14</v>
       </c>
       <c r="D423" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E423" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B424" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C424" t="s">
         <v>14</v>
       </c>
       <c r="D424" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E424" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B425" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C425" t="s">
         <v>14</v>
       </c>
       <c r="D425" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E425" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -10491,7 +10494,7 @@
         <v>12</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>14</v>
@@ -10500,7 +10503,7 @@
         <v>15</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>14</v>
@@ -10512,231 +10515,231 @@
         <v>17</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L427" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B428" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C428" t="s">
         <v>14</v>
       </c>
       <c r="D428" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E428" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B429" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C429" t="s">
         <v>14</v>
       </c>
       <c r="D429" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E429" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B430" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C430" t="s">
         <v>14</v>
       </c>
       <c r="D430" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E430" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B431" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C431" t="s">
         <v>14</v>
       </c>
       <c r="D431" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E431" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B432" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C432" t="s">
         <v>14</v>
       </c>
       <c r="D432" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E432" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B433" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C433" t="s">
         <v>14</v>
       </c>
       <c r="D433" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E433" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B434" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C434" t="s">
         <v>14</v>
       </c>
       <c r="D434" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E434" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B435" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C435" t="s">
         <v>14</v>
       </c>
       <c r="D435" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E435" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B436" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C436" t="s">
         <v>14</v>
       </c>
       <c r="D436" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E436" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B437" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C437" t="s">
         <v>14</v>
       </c>
       <c r="D437" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E437" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B438" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C438" t="s">
         <v>14</v>
       </c>
       <c r="D438" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E438" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B439" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C439" t="s">
         <v>14</v>
       </c>
       <c r="D439" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E439" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B440" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C440" t="s">
         <v>14</v>
       </c>
       <c r="D440" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E440" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -10745,7 +10748,7 @@
         <v>12</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>14</v>
@@ -10754,7 +10757,7 @@
         <v>15</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>14</v>
@@ -10766,95 +10769,95 @@
         <v>17</v>
       </c>
       <c r="K442" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B443" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C443" t="s">
         <v>14</v>
       </c>
       <c r="D443" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E443" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B444" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C444" t="s">
         <v>14</v>
       </c>
       <c r="D444" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E444" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B445" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C445" t="s">
         <v>14</v>
       </c>
       <c r="D445" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E445" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B446" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C446" t="s">
         <v>14</v>
       </c>
       <c r="D446" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E446" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B447" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C447" t="s">
         <v>14</v>
       </c>
       <c r="D447" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E447" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -10863,7 +10866,7 @@
         <v>12</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>14</v>
@@ -10872,7 +10875,7 @@
         <v>15</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>14</v>
@@ -10884,197 +10887,197 @@
         <v>17</v>
       </c>
       <c r="K449" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B450" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C450" t="s">
         <v>14</v>
       </c>
       <c r="D450" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E450" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B451" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C451" t="s">
         <v>14</v>
       </c>
       <c r="D451" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E451" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B452" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C452" t="s">
         <v>14</v>
       </c>
       <c r="D452" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E452" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B453" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C453" t="s">
         <v>14</v>
       </c>
       <c r="D453" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E453" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B454" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C454" t="s">
         <v>14</v>
       </c>
       <c r="D454" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E454" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B455" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C455" t="s">
         <v>14</v>
       </c>
       <c r="D455" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E455" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B456" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C456" t="s">
         <v>14</v>
       </c>
       <c r="D456" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E456" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B457" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C457" t="s">
         <v>14</v>
       </c>
       <c r="D457" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E457" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B458" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C458" t="s">
         <v>14</v>
       </c>
       <c r="D458" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E458" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B459" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C459" t="s">
         <v>14</v>
       </c>
       <c r="D459" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E459" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B460" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C460" t="s">
         <v>14</v>
       </c>
       <c r="D460" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E460" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -11083,7 +11086,7 @@
         <v>12</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>14</v>
@@ -11092,7 +11095,7 @@
         <v>15</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>14</v>
@@ -11104,180 +11107,180 @@
         <v>17</v>
       </c>
       <c r="K462" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L462" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B463" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C463" t="s">
         <v>14</v>
       </c>
       <c r="D463" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E463" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B464" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C464" t="s">
         <v>14</v>
       </c>
       <c r="D464" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E464" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B465" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C465" t="s">
         <v>14</v>
       </c>
       <c r="D465" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E465" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B466" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C466" t="s">
         <v>14</v>
       </c>
       <c r="D466" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E466" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B467" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C467" t="s">
         <v>14</v>
       </c>
       <c r="D467" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E467" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B468" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C468" t="s">
         <v>14</v>
       </c>
       <c r="D468" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E468" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B469" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C469" t="s">
         <v>14</v>
       </c>
       <c r="D469" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E469" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B470" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C470" t="s">
         <v>14</v>
       </c>
       <c r="D470" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E470" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B471" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C471" t="s">
         <v>14</v>
       </c>
       <c r="D471" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E471" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B472" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C472" t="s">
         <v>14</v>
       </c>
       <c r="D472" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E472" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -11286,7 +11289,7 @@
         <v>12</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>14</v>
@@ -11295,7 +11298,7 @@
         <v>15</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>14</v>
@@ -11307,95 +11310,95 @@
         <v>17</v>
       </c>
       <c r="K474" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="L474" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B475" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C475" t="s">
         <v>14</v>
       </c>
       <c r="D475" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E475" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B476" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C476" t="s">
         <v>14</v>
       </c>
       <c r="D476" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E476" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B477" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C477" t="s">
         <v>14</v>
       </c>
       <c r="D477" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E477" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B478" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C478" t="s">
         <v>14</v>
       </c>
       <c r="D478" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E478" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B479" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C479" t="s">
         <v>14</v>
       </c>
       <c r="D479" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E479" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -11404,7 +11407,7 @@
         <v>12</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>14</v>
@@ -11413,7 +11416,7 @@
         <v>15</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>14</v>
@@ -11425,180 +11428,180 @@
         <v>17</v>
       </c>
       <c r="K481" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="L481" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B482" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C482" t="s">
         <v>14</v>
       </c>
       <c r="D482" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E482" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B483" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C483" t="s">
         <v>14</v>
       </c>
       <c r="D483" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E483" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B484" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C484" t="s">
         <v>14</v>
       </c>
       <c r="D484" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E484" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B485" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C485" t="s">
         <v>14</v>
       </c>
       <c r="D485" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E485" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B486" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C486" t="s">
         <v>14</v>
       </c>
       <c r="D486" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E486" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B487" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C487" t="s">
         <v>14</v>
       </c>
       <c r="D487" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E487" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B488" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C488" t="s">
         <v>14</v>
       </c>
       <c r="D488" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E488" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B489" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C489" t="s">
         <v>14</v>
       </c>
       <c r="D489" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E489" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B490" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C490" t="s">
         <v>14</v>
       </c>
       <c r="D490" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E490" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B491" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C491" t="s">
         <v>14</v>
       </c>
       <c r="D491" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E491" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -11607,7 +11610,7 @@
         <v>12</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>14</v>
@@ -11616,7 +11619,7 @@
         <v>15</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>14</v>
@@ -11628,95 +11631,95 @@
         <v>17</v>
       </c>
       <c r="K493" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L493" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B494" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C494" t="s">
         <v>14</v>
       </c>
       <c r="D494" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E494" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B495" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C495" t="s">
         <v>14</v>
       </c>
       <c r="D495" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E495" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B496" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C496" t="s">
         <v>14</v>
       </c>
       <c r="D496" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E496" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B497" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C497" t="s">
         <v>14</v>
       </c>
       <c r="D497" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E497" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B498" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C498" t="s">
         <v>14</v>
       </c>
       <c r="D498" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E498" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25"/>
